--- a/www/IndicatorsPerCountry/Tanzania_GDPperCapita_TerritorialRef_1996_2012_CCode_834.xlsx
+++ b/www/IndicatorsPerCountry/Tanzania_GDPperCapita_TerritorialRef_1996_2012_CCode_834.xlsx
@@ -228,13 +228,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Tanzania_GDPperCapita_TerritorialRef_1996_2012_CCode_834.xlsx
+++ b/www/IndicatorsPerCountry/Tanzania_GDPperCapita_TerritorialRef_1996_2012_CCode_834.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,169 +36,181 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>549.371229319</t>
-  </si>
-  <si>
-    <t>545.388725231</t>
-  </si>
-  <si>
-    <t>533.171275043</t>
-  </si>
-  <si>
-    <t>522.203565458</t>
-  </si>
-  <si>
-    <t>510.698586296</t>
-  </si>
-  <si>
-    <t>512.469541595</t>
-  </si>
-  <si>
-    <t>524.747955448</t>
-  </si>
-  <si>
-    <t>530.689256161</t>
-  </si>
-  <si>
-    <t>534.755037098</t>
-  </si>
-  <si>
-    <t>537.743928232</t>
-  </si>
-  <si>
-    <t>547.172456307</t>
-  </si>
-  <si>
-    <t>563.074017466</t>
-  </si>
-  <si>
-    <t>585.660443539</t>
-  </si>
-  <si>
-    <t>607.370539087</t>
-  </si>
-  <si>
-    <t>636.071336559</t>
-  </si>
-  <si>
-    <t>663.363114888</t>
-  </si>
-  <si>
-    <t>687.827040685</t>
-  </si>
-  <si>
-    <t>715.85464535</t>
-  </si>
-  <si>
-    <t>747.476985026</t>
-  </si>
-  <si>
-    <t>771.75896831</t>
-  </si>
-  <si>
-    <t>803.852430632</t>
+    <t>676</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>891.894264796583</t>
+  </si>
+  <si>
+    <t>895.480598700604</t>
+  </si>
+  <si>
+    <t>900.413342270506</t>
+  </si>
+  <si>
+    <t>904.757464651378</t>
+  </si>
+  <si>
+    <t>931.002765921089</t>
+  </si>
+  <si>
+    <t>979.730435078623</t>
+  </si>
+  <si>
+    <t>1017.16811846792</t>
+  </si>
+  <si>
+    <t>1052.07501679565</t>
+  </si>
+  <si>
+    <t>1100.35320685852</t>
+  </si>
+  <si>
+    <t>1148.68017009953</t>
+  </si>
+  <si>
+    <t>1213.62687531406</t>
+  </si>
+  <si>
+    <t>1293.20506586684</t>
+  </si>
+  <si>
+    <t>1369.93908161501</t>
+  </si>
+  <si>
+    <t>1464.38536693869</t>
+  </si>
+  <si>
+    <t>1554.15231589586</t>
+  </si>
+  <si>
+    <t>1621.99654449678</t>
+  </si>
+  <si>
+    <t>1754.462648525</t>
+  </si>
+  <si>
+    <t>1848.17452737512</t>
+  </si>
+  <si>
+    <t>1946.84813162394</t>
+  </si>
+  <si>
+    <t>2068.86366158353</t>
+  </si>
+  <si>
+    <t>2227</t>
+  </si>
+  <si>
+    <t>2275</t>
+  </si>
+  <si>
+    <t>2372</t>
+  </si>
+  <si>
+    <t>2467</t>
+  </si>
+  <si>
+    <t>2566</t>
+  </si>
+  <si>
+    <t>2660</t>
   </si>
   <si>
     <t>Description</t>
@@ -469,7 +481,7 @@
         <v>1959.0</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -486,7 +498,7 @@
         <v>1960.0</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -503,7 +515,7 @@
         <v>1961.0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -520,7 +532,7 @@
         <v>1962.0</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -537,7 +549,7 @@
         <v>1963.0</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -554,7 +566,7 @@
         <v>1964.0</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +583,7 @@
         <v>1965.0</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -588,7 +600,7 @@
         <v>1966.0</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +617,7 @@
         <v>1967.0</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +634,7 @@
         <v>1968.0</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -639,7 +651,7 @@
         <v>1969.0</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -656,7 +668,7 @@
         <v>1970.0</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -673,7 +685,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -690,7 +702,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -707,7 +719,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -724,7 +736,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -741,7 +753,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -758,7 +770,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -775,7 +787,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -792,7 +804,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -809,7 +821,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +838,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -843,7 +855,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -860,7 +872,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -877,7 +889,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -894,7 +906,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +923,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +940,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -945,7 +957,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -962,7 +974,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -979,7 +991,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -996,7 +1008,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1013,7 +1025,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -1030,7 +1042,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -1047,7 +1059,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -1064,7 +1076,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -1081,7 +1093,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -1098,7 +1110,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -1115,7 +1127,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
@@ -1132,7 +1144,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1161,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1178,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
@@ -1183,7 +1195,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -1200,7 +1212,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -1217,7 +1229,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
@@ -1234,7 +1246,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
@@ -1251,7 +1263,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -1268,7 +1280,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -1285,7 +1297,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
@@ -1302,7 +1314,7 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61">
@@ -1319,7 +1331,7 @@
         <v>2009.0</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
@@ -1336,7 +1348,109 @@
         <v>2010.0</v>
       </c>
       <c r="E62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1354,50 +1468,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
